--- a/biology/Botanique/Tetramelaceae/Tetramelaceae.xlsx
+++ b/biology/Botanique/Tetramelaceae/Tetramelaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetramelaceae est une famille de plantes dicotylédones, possédant 2 genres monospécifiques. Ce sont des arbres d'Asie du Sud et d'Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Tetrameles dérivé du grec τετρα / tetra, quatre, et μέλος / melos, membre, partie, en référence aux fleurs à quatre sépales.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille n'existait pas. Les deux genres étaient placés parmi les Datiscacées, mais ils seraient en fait proches des Lythracées (famille de la salicaire et du henné).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existait pas. Les deux genres étaient placés parmi les Datiscacées, mais ils seraient en fait proches des Lythracées (famille de la salicaire et du henné).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 mai 2010)[2], NCBI  (27 mai 2010)[3] et DELTA Angio           (27 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 mai 2010), NCBI  (27 mai 2010) et DELTA Angio           (27 mai 2010) :
 genre Octomeles, arbre originaire de l'Inde à la Nouvelle-Guinée
 genre Tetrameles, arbre originaire de l'Indochine à la Malaisie</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 mai 2010) :
 genre Octomeles (en)
 Octomeles sumatrana
 genre Tetrameles
